--- a/8/3/Activos de reserva por moneda 1982 a 2021 - Trimestral.xlsx
+++ b/8/3/Activos de reserva por moneda 1982 a 2021 - Trimestral.xlsx
@@ -11983,14 +11983,107 @@
       <c r="A159" t="s">
         <v>177</v>
       </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>584</v>
+      </c>
+      <c r="D159">
+        <v>690</v>
+      </c>
       <c r="E159">
         <v>43667</v>
       </c>
+      <c r="F159">
+        <v>3294</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
+        <v>3265</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>21</v>
+      </c>
+      <c r="O159">
+        <v>40373</v>
+      </c>
+      <c r="P159">
+        <v>1200</v>
+      </c>
+      <c r="Q159">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>31148</v>
+      </c>
+      <c r="S159">
+        <v>2011</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>1594</v>
+      </c>
+      <c r="V159">
+        <v>1</v>
+      </c>
+      <c r="W159">
+        <v>4416</v>
+      </c>
       <c r="X159">
         <v>0</v>
       </c>
       <c r="Y159">
         <v>44954</v>
+      </c>
+      <c r="Z159">
+        <v>1202</v>
+      </c>
+      <c r="AA159">
+        <v>5</v>
+      </c>
+      <c r="AB159">
+        <v>34413</v>
+      </c>
+      <c r="AC159">
+        <v>2013</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>1595</v>
+      </c>
+      <c r="AF159">
+        <v>1</v>
+      </c>
+      <c r="AG159">
+        <v>14</v>
+      </c>
+      <c r="AH159">
+        <v>1266</v>
+      </c>
+      <c r="AI159">
+        <v>4444</v>
       </c>
     </row>
   </sheetData>

--- a/8/3/Activos de reserva por moneda 1982 a 2021 - Trimestral.xlsx
+++ b/8/3/Activos de reserva por moneda 1982 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="179">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI159"/>
+  <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12086,6 +12089,20 @@
         <v>4444</v>
       </c>
     </row>
+    <row r="160" spans="1:35">
+      <c r="A160" t="s">
+        <v>178</v>
+      </c>
+      <c r="E160">
+        <v>49482</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>53309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
